--- a/Code/Results/Cases/Case_9_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.167216466927897</v>
+        <v>1.056252657076243</v>
       </c>
       <c r="C2">
-        <v>0.1375245592208927</v>
+        <v>0.1396436955681537</v>
       </c>
       <c r="D2">
-        <v>0.06536136242348078</v>
+        <v>0.06702023436744042</v>
       </c>
       <c r="E2">
-        <v>0.04904578571371054</v>
+        <v>0.04564299287672036</v>
       </c>
       <c r="F2">
-        <v>0.9798721201143934</v>
+        <v>0.8611464670155513</v>
       </c>
       <c r="G2">
-        <v>0.9255519496179403</v>
+        <v>0.7811625984332551</v>
       </c>
       <c r="H2">
-        <v>0.01051972795320746</v>
+        <v>0.008366700896781126</v>
       </c>
       <c r="I2">
-        <v>0.01316777291647941</v>
+        <v>0.00957859170979436</v>
       </c>
       <c r="J2">
-        <v>0.6519430848335759</v>
+        <v>0.5957631929837248</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2699841343986549</v>
       </c>
       <c r="M2">
-        <v>0.9841963168986751</v>
+        <v>0.2121692268656332</v>
       </c>
       <c r="N2">
-        <v>0.1462608563198913</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2400139711330453</v>
+        <v>0.9698007751201771</v>
       </c>
       <c r="P2">
-        <v>1.318793935724635</v>
+        <v>0.1604363968014368</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2281810994118416</v>
+      </c>
+      <c r="R2">
+        <v>1.190784890342407</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.020244298302998</v>
+        <v>0.9262142280944659</v>
       </c>
       <c r="C3">
-        <v>0.1263208231611372</v>
+        <v>0.1247361702350673</v>
       </c>
       <c r="D3">
-        <v>0.06221360890459238</v>
+        <v>0.06265972869540093</v>
       </c>
       <c r="E3">
-        <v>0.04522688605150016</v>
+        <v>0.04252562153528139</v>
       </c>
       <c r="F3">
-        <v>0.9238835826472851</v>
+        <v>0.8178876659663743</v>
       </c>
       <c r="G3">
-        <v>0.8767376388619397</v>
+        <v>0.7489252867356129</v>
       </c>
       <c r="H3">
-        <v>0.01346226545988422</v>
+        <v>0.01075490008665107</v>
       </c>
       <c r="I3">
-        <v>0.01669276210494308</v>
+        <v>0.01216573513309482</v>
       </c>
       <c r="J3">
-        <v>0.6333134301782195</v>
+        <v>0.5791900625909534</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2703877724807988</v>
       </c>
       <c r="M3">
-        <v>0.8553172211039168</v>
+        <v>0.2029181064725414</v>
       </c>
       <c r="N3">
-        <v>0.1293278528395234</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2104986616828946</v>
+        <v>0.8441251497469011</v>
       </c>
       <c r="P3">
-        <v>1.343492224000315</v>
+        <v>0.1424398993558427</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2005608061639848</v>
+      </c>
+      <c r="R3">
+        <v>1.220956546755168</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9297681353820053</v>
+        <v>0.8458754719882222</v>
       </c>
       <c r="C4">
-        <v>0.1194922765436175</v>
+        <v>0.1157225666336856</v>
       </c>
       <c r="D4">
-        <v>0.06026123552814155</v>
+        <v>0.0599806448600404</v>
       </c>
       <c r="E4">
-        <v>0.0428598442332504</v>
+        <v>0.04058490800467851</v>
       </c>
       <c r="F4">
-        <v>0.8899853611518154</v>
+        <v>0.7916147552909649</v>
       </c>
       <c r="G4">
-        <v>0.8471313094635349</v>
+        <v>0.7294791754018206</v>
       </c>
       <c r="H4">
-        <v>0.01552324014320733</v>
+        <v>0.01243168514604408</v>
       </c>
       <c r="I4">
-        <v>0.01919144026695463</v>
+        <v>0.01402079626982555</v>
       </c>
       <c r="J4">
-        <v>0.6221344110223299</v>
+        <v>0.5689789560973111</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2704774150659546</v>
       </c>
       <c r="M4">
-        <v>0.7762692869172554</v>
+        <v>0.1979124460145911</v>
       </c>
       <c r="N4">
-        <v>0.118956214508259</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1923518741588026</v>
+        <v>0.7669230187793801</v>
       </c>
       <c r="P4">
-        <v>1.358994658072533</v>
+        <v>0.1314240175866033</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1835482105647586</v>
+      </c>
+      <c r="R4">
+        <v>1.239841696638511</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8918707768168304</v>
+        <v>0.8121266711618205</v>
       </c>
       <c r="C5">
-        <v>0.1168750516450388</v>
+        <v>0.1122790886741569</v>
       </c>
       <c r="D5">
-        <v>0.05950053247282838</v>
+        <v>0.05893475849937246</v>
       </c>
       <c r="E5">
-        <v>0.04185502643223415</v>
+        <v>0.0397566037203454</v>
       </c>
       <c r="F5">
-        <v>0.8754089677640664</v>
+        <v>0.7801890397574951</v>
       </c>
       <c r="G5">
-        <v>0.834178873405989</v>
+        <v>0.7207847426057441</v>
       </c>
       <c r="H5">
-        <v>0.01643166098456039</v>
+        <v>0.01317181070298809</v>
       </c>
       <c r="I5">
-        <v>0.02038543894475575</v>
+        <v>0.01494611384350986</v>
       </c>
       <c r="J5">
-        <v>0.6171445840477929</v>
+        <v>0.5643529840782975</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2701644524903415</v>
       </c>
       <c r="M5">
-        <v>0.7438898789546613</v>
+        <v>0.1958342305353931</v>
       </c>
       <c r="N5">
-        <v>0.1147982695455951</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1848441402896164</v>
+        <v>0.7352765574892999</v>
       </c>
       <c r="P5">
-        <v>1.364662003027021</v>
+        <v>0.127004665597056</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1765024141317433</v>
+      </c>
+      <c r="R5">
+        <v>1.247060090398424</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8843958148748357</v>
+        <v>0.8054351487235465</v>
       </c>
       <c r="C6">
-        <v>0.1166330399426201</v>
+        <v>0.111953010849426</v>
       </c>
       <c r="D6">
-        <v>0.05942320801174716</v>
+        <v>0.05881839576470682</v>
       </c>
       <c r="E6">
-        <v>0.04164618503752315</v>
+        <v>0.03958160928822352</v>
       </c>
       <c r="F6">
-        <v>0.8719255887111856</v>
+        <v>0.777335639976144</v>
       </c>
       <c r="G6">
-        <v>0.830844561764664</v>
+        <v>0.7183068327746298</v>
       </c>
       <c r="H6">
-        <v>0.01659461778216231</v>
+        <v>0.01330478384355574</v>
       </c>
       <c r="I6">
-        <v>0.02071140209486177</v>
+        <v>0.01524019241382479</v>
       </c>
       <c r="J6">
-        <v>0.6157129008789326</v>
+        <v>0.5630280778135699</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2697327530902029</v>
       </c>
       <c r="M6">
-        <v>0.7382950754654587</v>
+        <v>0.1952459400632307</v>
       </c>
       <c r="N6">
-        <v>0.1141862528729831</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1834681631255215</v>
+        <v>0.7298129172891379</v>
       </c>
       <c r="P6">
-        <v>1.364715177424095</v>
+        <v>0.1263478409696646</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1752109505048161</v>
+      </c>
+      <c r="R6">
+        <v>1.247575872885228</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9260282504041299</v>
+        <v>0.8416727378130133</v>
       </c>
       <c r="C7">
-        <v>0.1199830284158168</v>
+        <v>0.1161237198355067</v>
       </c>
       <c r="D7">
-        <v>0.06038668679851256</v>
+        <v>0.06022487601289583</v>
       </c>
       <c r="E7">
-        <v>0.04273262001164646</v>
+        <v>0.04049540914097882</v>
       </c>
       <c r="F7">
-        <v>0.8868661396827235</v>
+        <v>0.7872391191529005</v>
       </c>
       <c r="G7">
-        <v>0.8437091281137299</v>
+        <v>0.7296958115996972</v>
       </c>
       <c r="H7">
-        <v>0.01555715270585528</v>
+        <v>0.01246850056896583</v>
       </c>
       <c r="I7">
-        <v>0.01952460766902675</v>
+        <v>0.01439809682847581</v>
       </c>
       <c r="J7">
-        <v>0.620410736389104</v>
+        <v>0.5613206431609541</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2690237867285425</v>
       </c>
       <c r="M7">
-        <v>0.7752320859571853</v>
+        <v>0.1968647508282722</v>
       </c>
       <c r="N7">
-        <v>0.1191142292102185</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1918976566071748</v>
+        <v>0.7648212243759929</v>
       </c>
       <c r="P7">
-        <v>1.356648408185606</v>
+        <v>0.1315477740025557</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1829952286120466</v>
+      </c>
+      <c r="R7">
+        <v>1.237177041934196</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.112266355469444</v>
+        <v>1.004925611499033</v>
       </c>
       <c r="C8">
-        <v>0.1343553560296655</v>
+        <v>0.1346288345281863</v>
       </c>
       <c r="D8">
-        <v>0.06446446399341355</v>
+        <v>0.06607818413606026</v>
       </c>
       <c r="E8">
-        <v>0.04758257272052191</v>
+        <v>0.04451755221033515</v>
       </c>
       <c r="F8">
-        <v>0.9565941595350154</v>
+        <v>0.8374194732545703</v>
       </c>
       <c r="G8">
-        <v>0.9043430719572711</v>
+        <v>0.7768482525514315</v>
       </c>
       <c r="H8">
-        <v>0.01150386064301043</v>
+        <v>0.009188366978217399</v>
       </c>
       <c r="I8">
-        <v>0.01468982479688918</v>
+        <v>0.01087010178870429</v>
       </c>
       <c r="J8">
-        <v>0.6432789784773547</v>
+        <v>0.5681564809665076</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2675530728611619</v>
       </c>
       <c r="M8">
-        <v>0.938926695531876</v>
+        <v>0.2067300186320082</v>
       </c>
       <c r="N8">
-        <v>0.1407024344570047</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2293693204337153</v>
+        <v>0.9219959783818865</v>
       </c>
       <c r="P8">
-        <v>1.324110435041788</v>
+        <v>0.1544171841612609</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2177997284110873</v>
+      </c>
+      <c r="R8">
+        <v>1.195924215998566</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.481773990881635</v>
+        <v>1.329515990804509</v>
       </c>
       <c r="C9">
-        <v>0.1621403580348328</v>
+        <v>0.1717724086131938</v>
       </c>
       <c r="D9">
-        <v>0.07206629496867123</v>
+        <v>0.07689926823131543</v>
       </c>
       <c r="E9">
-        <v>0.0571500689423452</v>
+        <v>0.05231245668558415</v>
       </c>
       <c r="F9">
-        <v>1.102771309673301</v>
+        <v>0.9488900223005885</v>
       </c>
       <c r="G9">
-        <v>1.0323240934501</v>
+        <v>0.8658853775598345</v>
       </c>
       <c r="H9">
-        <v>0.005651287259843485</v>
+        <v>0.004455366150958318</v>
       </c>
       <c r="I9">
-        <v>0.007521605753712635</v>
+        <v>0.005587817652552118</v>
       </c>
       <c r="J9">
-        <v>0.6932935047289845</v>
+        <v>0.6056607214034386</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2666770519585171</v>
       </c>
       <c r="M9">
-        <v>1.262159566116168</v>
+        <v>0.2339871732319665</v>
       </c>
       <c r="N9">
-        <v>0.1829240966423811</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3033694672907288</v>
+        <v>1.23532570671145</v>
       </c>
       <c r="P9">
-        <v>1.267308516725677</v>
+        <v>0.1993131900157863</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2867364313697323</v>
+      </c>
+      <c r="R9">
+        <v>1.124398027331615</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.739051580660998</v>
+        <v>1.550212105159858</v>
       </c>
       <c r="C10">
-        <v>0.1851241132341954</v>
+        <v>0.2010169595595386</v>
       </c>
       <c r="D10">
-        <v>0.07840120906976722</v>
+        <v>0.08645692674565453</v>
       </c>
       <c r="E10">
-        <v>0.06140587650528673</v>
+        <v>0.05568406898901479</v>
       </c>
       <c r="F10">
-        <v>1.197790034588493</v>
+        <v>1.011049928545205</v>
       </c>
       <c r="G10">
-        <v>1.111654236535202</v>
+        <v>0.9389999490464618</v>
       </c>
       <c r="H10">
-        <v>0.003132643625462617</v>
+        <v>0.002497317029975132</v>
       </c>
       <c r="I10">
-        <v>0.004367045675570225</v>
+        <v>0.003446708751913441</v>
       </c>
       <c r="J10">
-        <v>0.7229541386160889</v>
+        <v>0.5929266352298725</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2597648775798653</v>
       </c>
       <c r="M10">
-        <v>1.497557914029869</v>
+        <v>0.2512616589103729</v>
       </c>
       <c r="N10">
-        <v>0.2034537447027702</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3502068547167667</v>
+        <v>1.456385862844854</v>
       </c>
       <c r="P10">
-        <v>1.215901159847903</v>
+        <v>0.2211271081797719</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3293348161422429</v>
+      </c>
+      <c r="R10">
+        <v>1.062365337801904</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.745469109091374</v>
+        <v>1.554363973664692</v>
       </c>
       <c r="C11">
-        <v>0.2137684672540558</v>
+        <v>0.2314803472928162</v>
       </c>
       <c r="D11">
-        <v>0.08886054102454466</v>
+        <v>0.1004876480219679</v>
       </c>
       <c r="E11">
-        <v>0.04518391647822639</v>
+        <v>0.04162915956939539</v>
       </c>
       <c r="F11">
-        <v>1.116543902410868</v>
+        <v>0.9247621817875142</v>
       </c>
       <c r="G11">
-        <v>1.010777617169822</v>
+        <v>0.893845647724703</v>
       </c>
       <c r="H11">
-        <v>0.02172024526547389</v>
+        <v>0.02115809104277844</v>
       </c>
       <c r="I11">
-        <v>0.00427103501229098</v>
+        <v>0.003682910221549207</v>
       </c>
       <c r="J11">
-        <v>0.6674597563862648</v>
+        <v>0.4875210880773722</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.226937650275822</v>
       </c>
       <c r="M11">
-        <v>1.576265728857265</v>
+        <v>0.2251351012040317</v>
       </c>
       <c r="N11">
-        <v>0.129997499200897</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3087677729866982</v>
+        <v>1.520533644377934</v>
       </c>
       <c r="P11">
-        <v>1.108929526281585</v>
+        <v>0.1435063108911763</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2884062381045425</v>
+      </c>
+      <c r="R11">
+        <v>0.9815617931586011</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.700941484463584</v>
+        <v>1.518357111225072</v>
       </c>
       <c r="C12">
-        <v>0.2346845524454579</v>
+        <v>0.2522776172110781</v>
       </c>
       <c r="D12">
-        <v>0.09718007249719562</v>
+        <v>0.1106666711805246</v>
       </c>
       <c r="E12">
-        <v>0.03769336128370915</v>
+        <v>0.03568854020993317</v>
       </c>
       <c r="F12">
-        <v>1.034001155918745</v>
+        <v>0.8504129222355488</v>
       </c>
       <c r="G12">
-        <v>0.9171679649212479</v>
+        <v>0.8333018427751568</v>
       </c>
       <c r="H12">
-        <v>0.0606368059276079</v>
+        <v>0.06006316713645532</v>
       </c>
       <c r="I12">
-        <v>0.00420332096331677</v>
+        <v>0.003643176858274977</v>
       </c>
       <c r="J12">
-        <v>0.6183017828127078</v>
+        <v>0.4296954074948189</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.205060885188896</v>
       </c>
       <c r="M12">
-        <v>1.59328212575403</v>
+        <v>0.2029538371579207</v>
       </c>
       <c r="N12">
-        <v>0.07867644294434939</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2669556786403895</v>
+        <v>1.532451492074472</v>
       </c>
       <c r="P12">
-        <v>1.044610627550139</v>
+        <v>0.0888337994070767</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2483633326331933</v>
+      </c>
+      <c r="R12">
+        <v>0.942844639245207</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.609777350877096</v>
+        <v>1.446834034937126</v>
       </c>
       <c r="C13">
-        <v>0.2514185417388006</v>
+        <v>0.2686300763447633</v>
       </c>
       <c r="D13">
-        <v>0.1044395560395728</v>
+        <v>0.1179599115837391</v>
       </c>
       <c r="E13">
-        <v>0.03620308407250628</v>
+        <v>0.03551877510237045</v>
       </c>
       <c r="F13">
-        <v>0.9410818887786974</v>
+        <v>0.7793947953288125</v>
       </c>
       <c r="G13">
-        <v>0.8186757128624009</v>
+        <v>0.746552410208281</v>
       </c>
       <c r="H13">
-        <v>0.1168735733109116</v>
+        <v>0.1162054625242206</v>
       </c>
       <c r="I13">
-        <v>0.004551872060748252</v>
+        <v>0.003858018719124168</v>
       </c>
       <c r="J13">
-        <v>0.5685492367372973</v>
+        <v>0.4049353564855025</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1885485788870689</v>
       </c>
       <c r="M13">
-        <v>1.562572064886695</v>
+        <v>0.1821169559408453</v>
       </c>
       <c r="N13">
-        <v>0.04187307017600261</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2221742995743412</v>
+        <v>1.506822021022259</v>
       </c>
       <c r="P13">
-        <v>1.004854553911748</v>
+        <v>0.04913009406378421</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2065581416224553</v>
+      </c>
+      <c r="R13">
+        <v>0.9285322780545657</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.52445634325619</v>
+        <v>1.379958264795903</v>
       </c>
       <c r="C14">
-        <v>0.261671568460045</v>
+        <v>0.2785480935964131</v>
       </c>
       <c r="D14">
-        <v>0.1091683961796548</v>
+        <v>0.1217767279351918</v>
       </c>
       <c r="E14">
-        <v>0.03875339016583901</v>
+        <v>0.03893654350827092</v>
       </c>
       <c r="F14">
-        <v>0.871360978585912</v>
+        <v>0.7302605274326197</v>
       </c>
       <c r="G14">
-        <v>0.7477270014345976</v>
+        <v>0.6759257005696639</v>
       </c>
       <c r="H14">
-        <v>0.1666760713727484</v>
+        <v>0.1658983434976022</v>
       </c>
       <c r="I14">
-        <v>0.005105329656605484</v>
+        <v>0.004249076067979196</v>
       </c>
       <c r="J14">
-        <v>0.5334962221026132</v>
+        <v>0.3992613973718591</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1789222760459452</v>
       </c>
       <c r="M14">
-        <v>1.519397710231431</v>
+        <v>0.1681586342490675</v>
       </c>
       <c r="N14">
-        <v>0.02492245680205585</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1900600713745675</v>
+        <v>1.471614040791906</v>
       </c>
       <c r="P14">
-        <v>0.9891516326408043</v>
+        <v>0.03039472400540255</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1769249166230722</v>
+      </c>
+      <c r="R14">
+        <v>0.928831831178961</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.492793883868558</v>
+        <v>1.354965774265224</v>
       </c>
       <c r="C15">
-        <v>0.2632779693674223</v>
+        <v>0.2801535214536131</v>
       </c>
       <c r="D15">
-        <v>0.1100316617699804</v>
+        <v>0.122039601685259</v>
       </c>
       <c r="E15">
-        <v>0.03974806487854021</v>
+        <v>0.04016578159848905</v>
       </c>
       <c r="F15">
-        <v>0.8511453642779401</v>
+        <v>0.7175050458211842</v>
       </c>
       <c r="G15">
-        <v>0.7281276961177383</v>
+        <v>0.6535232096170915</v>
       </c>
       <c r="H15">
-        <v>0.1793972198715892</v>
+        <v>0.1785665977450321</v>
       </c>
       <c r="I15">
-        <v>0.005483332332628876</v>
+        <v>0.004566299819991571</v>
       </c>
       <c r="J15">
-        <v>0.5242029965260855</v>
+        <v>0.4024034469125795</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.177061395787419</v>
       </c>
       <c r="M15">
-        <v>1.49858414298447</v>
+        <v>0.1646457879753527</v>
       </c>
       <c r="N15">
-        <v>0.02193526483295116</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1812666681380612</v>
+        <v>1.454640156256431</v>
       </c>
       <c r="P15">
-        <v>0.9886833115939391</v>
+        <v>0.02702323190101197</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1689381542853603</v>
+      </c>
+      <c r="R15">
+        <v>0.9319397944678336</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.400974944172958</v>
+        <v>1.281446230726203</v>
       </c>
       <c r="C16">
-        <v>0.249641913206716</v>
+        <v>0.2667658486678874</v>
       </c>
       <c r="D16">
-        <v>0.1056154027035561</v>
+        <v>0.1145289951704029</v>
       </c>
       <c r="E16">
-        <v>0.03819940698796565</v>
+        <v>0.03885378687678909</v>
       </c>
       <c r="F16">
-        <v>0.828402416648629</v>
+        <v>0.7153775245173506</v>
       </c>
       <c r="G16">
-        <v>0.7133275222422526</v>
+        <v>0.6151668437902771</v>
       </c>
       <c r="H16">
-        <v>0.1677607813578419</v>
+        <v>0.1666626217143943</v>
       </c>
       <c r="I16">
-        <v>0.00685225043730231</v>
+        <v>0.005539823018512635</v>
       </c>
       <c r="J16">
-        <v>0.5209623984018776</v>
+        <v>0.4458510048419839</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1829474030089102</v>
       </c>
       <c r="M16">
-        <v>1.403307134387489</v>
+        <v>0.1647140320750786</v>
       </c>
       <c r="N16">
-        <v>0.02182891418466149</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1714031175122805</v>
+        <v>1.375053869697666</v>
       </c>
       <c r="P16">
-        <v>1.015704841872093</v>
+        <v>0.02717972139940805</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1609269262198758</v>
+      </c>
+      <c r="R16">
+        <v>0.9568964103479338</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.375477214808512</v>
+        <v>1.259168438231143</v>
       </c>
       <c r="C17">
-        <v>0.2336830399017487</v>
+        <v>0.2505959728411824</v>
       </c>
       <c r="D17">
-        <v>0.09969608485351955</v>
+        <v>0.10716223156426</v>
       </c>
       <c r="E17">
-        <v>0.03503446845321179</v>
+        <v>0.03531337898768783</v>
       </c>
       <c r="F17">
-        <v>0.8476368383800121</v>
+        <v>0.7382338475572467</v>
       </c>
       <c r="G17">
-        <v>0.739094946954566</v>
+        <v>0.6257484330701573</v>
       </c>
       <c r="H17">
-        <v>0.1306011002041885</v>
+        <v>0.1293553281475965</v>
       </c>
       <c r="I17">
-        <v>0.007661139253867688</v>
+        <v>0.006132796836396892</v>
       </c>
       <c r="J17">
-        <v>0.5368819268568927</v>
+        <v>0.479458194452576</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1927735268507043</v>
       </c>
       <c r="M17">
-        <v>1.353290659529733</v>
+        <v>0.1715603506724328</v>
       </c>
       <c r="N17">
-        <v>0.02920307819019996</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1804041813174173</v>
+        <v>1.33094796504642</v>
       </c>
       <c r="P17">
-        <v>1.044138615095239</v>
+        <v>0.03565935222021466</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1700161987762421</v>
+      </c>
+      <c r="R17">
+        <v>0.9772164596588748</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.40663749583365</v>
+        <v>1.282587438570232</v>
       </c>
       <c r="C18">
-        <v>0.2142639410860738</v>
+        <v>0.2308168013534413</v>
       </c>
       <c r="D18">
-        <v>0.09208722623618115</v>
+        <v>0.09886099820519689</v>
       </c>
       <c r="E18">
-        <v>0.03347025331835374</v>
+        <v>0.03272147629463928</v>
       </c>
       <c r="F18">
-        <v>0.908354403174684</v>
+        <v>0.7910135031586663</v>
       </c>
       <c r="G18">
-        <v>0.8068847083691111</v>
+        <v>0.6760054474158181</v>
       </c>
       <c r="H18">
-        <v>0.07784182083589286</v>
+        <v>0.07657170218317333</v>
       </c>
       <c r="I18">
-        <v>0.007622757833837035</v>
+        <v>0.005993644356891537</v>
       </c>
       <c r="J18">
-        <v>0.5731091358821061</v>
+        <v>0.5180265408620954</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2090259326807136</v>
       </c>
       <c r="M18">
-        <v>1.336624215524779</v>
+        <v>0.1865734605881997</v>
       </c>
       <c r="N18">
-        <v>0.05140956653041329</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2083343543126368</v>
+        <v>1.315212119651193</v>
       </c>
       <c r="P18">
-        <v>1.083714545493567</v>
+        <v>0.06001126474004792</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1966931499052826</v>
+      </c>
+      <c r="R18">
+        <v>1.001268317248798</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.475699631949283</v>
+        <v>1.336653827015994</v>
       </c>
       <c r="C19">
-        <v>0.1965814643075277</v>
+        <v>0.2127329189912501</v>
       </c>
       <c r="D19">
-        <v>0.08472649113866737</v>
+        <v>0.09118705235168534</v>
       </c>
       <c r="E19">
-        <v>0.03826836072294526</v>
+        <v>0.03590259351463132</v>
       </c>
       <c r="F19">
-        <v>0.9955642989465048</v>
+        <v>0.8626554422161803</v>
       </c>
       <c r="G19">
-        <v>0.9020521401764654</v>
+        <v>0.7503787988279669</v>
       </c>
       <c r="H19">
-        <v>0.03201429042985637</v>
+        <v>0.03084392227582811</v>
       </c>
       <c r="I19">
-        <v>0.007452846982998196</v>
+        <v>0.005940796446828323</v>
       </c>
       <c r="J19">
-        <v>0.622069423072233</v>
+        <v>0.5602308008109276</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2292561549043803</v>
       </c>
       <c r="M19">
-        <v>1.346606601826323</v>
+        <v>0.2070335821392142</v>
       </c>
       <c r="N19">
-        <v>0.09563719820347671</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2513553717029637</v>
+        <v>1.323232406519992</v>
       </c>
       <c r="P19">
-        <v>1.135816616372846</v>
+        <v>0.1073494397910579</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2374548990917553</v>
+      </c>
+      <c r="R19">
+        <v>1.031887479141229</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.660651597526908</v>
+        <v>1.485565508843905</v>
       </c>
       <c r="C20">
-        <v>0.1808702903305601</v>
+        <v>0.1964955270199198</v>
       </c>
       <c r="D20">
-        <v>0.07723936478314641</v>
+        <v>0.08412551042043503</v>
       </c>
       <c r="E20">
-        <v>0.05982715977940245</v>
+        <v>0.05431426934700312</v>
       </c>
       <c r="F20">
-        <v>1.162938539037739</v>
+        <v>0.9918271249472781</v>
       </c>
       <c r="G20">
-        <v>1.079924439073437</v>
+        <v>0.8986652950589615</v>
       </c>
       <c r="H20">
-        <v>0.003715044170236936</v>
+        <v>0.002932824146677948</v>
       </c>
       <c r="I20">
-        <v>0.005957526395998336</v>
+        <v>0.00493108782156515</v>
       </c>
       <c r="J20">
-        <v>0.7096359218421782</v>
+        <v>0.6121482986163045</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2602163465462191</v>
       </c>
       <c r="M20">
-        <v>1.433520333972439</v>
+        <v>0.2451065372367367</v>
       </c>
       <c r="N20">
-        <v>0.1982636776429132</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3364760945542926</v>
+        <v>1.400445324962277</v>
       </c>
       <c r="P20">
-        <v>1.221943563344013</v>
+        <v>0.2156637539168855</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3172987617382645</v>
+      </c>
+      <c r="R20">
+        <v>1.076142798994347</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.878815322782231</v>
+        <v>1.655385871259853</v>
       </c>
       <c r="C21">
-        <v>0.1957183142131385</v>
+        <v>0.2113315944870351</v>
       </c>
       <c r="D21">
-        <v>0.08083596449105812</v>
+        <v>0.09232909679338519</v>
       </c>
       <c r="E21">
-        <v>0.06729140303141357</v>
+        <v>0.06109757527121573</v>
       </c>
       <c r="F21">
-        <v>1.260779985705582</v>
+        <v>1.029539650062404</v>
       </c>
       <c r="G21">
-        <v>1.168066814109096</v>
+        <v>1.041113944181291</v>
       </c>
       <c r="H21">
-        <v>0.001787313967974269</v>
+        <v>0.001419841386834708</v>
       </c>
       <c r="I21">
-        <v>0.003879525296552444</v>
+        <v>0.003549169291780174</v>
       </c>
       <c r="J21">
-        <v>0.7462254701264044</v>
+        <v>0.5127818627036902</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2540732495298883</v>
       </c>
       <c r="M21">
-        <v>1.620042832111892</v>
+        <v>0.257929663397185</v>
       </c>
       <c r="N21">
-        <v>0.2308285087115394</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3840927818977065</v>
+        <v>1.553036064464777</v>
       </c>
       <c r="P21">
-        <v>1.200933879504575</v>
+        <v>0.2495715622106047</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3584023371484406</v>
+      </c>
+      <c r="R21">
+        <v>1.026959689180476</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.019714101027319</v>
+        <v>1.763587386898536</v>
       </c>
       <c r="C22">
-        <v>0.2057631394138184</v>
+        <v>0.2210166601205827</v>
       </c>
       <c r="D22">
-        <v>0.08336476831307493</v>
+        <v>0.09817879583010836</v>
       </c>
       <c r="E22">
-        <v>0.07096824663127066</v>
+        <v>0.06453737346317112</v>
       </c>
       <c r="F22">
-        <v>1.322133097662558</v>
+        <v>1.049561115975209</v>
       </c>
       <c r="G22">
-        <v>1.222587218072832</v>
+        <v>1.141388298195778</v>
       </c>
       <c r="H22">
-        <v>0.0009924576565072396</v>
+        <v>0.0008056440164359024</v>
       </c>
       <c r="I22">
-        <v>0.002625896466336819</v>
+        <v>0.002553834137425604</v>
       </c>
       <c r="J22">
-        <v>0.7686311559416339</v>
+        <v>0.4490326424555349</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2490383055442997</v>
       </c>
       <c r="M22">
-        <v>1.741675416671143</v>
+        <v>0.2654106423737588</v>
       </c>
       <c r="N22">
-        <v>0.2463615853836245</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.411985364938694</v>
+        <v>1.65028588245633</v>
       </c>
       <c r="P22">
-        <v>1.185123145369026</v>
+        <v>0.2656666647394275</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3819067741255111</v>
+      </c>
+      <c r="R22">
+        <v>0.9933413249327039</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.948464725093061</v>
+        <v>1.711627516424983</v>
       </c>
       <c r="C23">
-        <v>0.1997197964375346</v>
+        <v>0.2155871541384471</v>
       </c>
       <c r="D23">
-        <v>0.0818374511701947</v>
+        <v>0.0944958692600224</v>
       </c>
       <c r="E23">
-        <v>0.06914026430388098</v>
+        <v>0.06274283927086266</v>
       </c>
       <c r="F23">
-        <v>1.292758076259716</v>
+        <v>1.045958111627371</v>
       </c>
       <c r="G23">
-        <v>1.197245815342797</v>
+        <v>1.081480114768041</v>
       </c>
       <c r="H23">
-        <v>0.001380020014823069</v>
+        <v>0.001101160195894568</v>
       </c>
       <c r="I23">
-        <v>0.002924877419832939</v>
+        <v>0.00266031216808571</v>
       </c>
       <c r="J23">
-        <v>0.7585638939970494</v>
+        <v>0.4956175353774199</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2534244241835992</v>
       </c>
       <c r="M23">
-        <v>1.67747086775816</v>
+        <v>0.2634293966507855</v>
       </c>
       <c r="N23">
-        <v>0.2378000469285837</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3975274529885553</v>
+        <v>1.602164847415509</v>
       </c>
       <c r="P23">
-        <v>1.196098038797672</v>
+        <v>0.2568755460935108</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3701212160588128</v>
+      </c>
+      <c r="R23">
+        <v>1.014576106460741</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.672637337574571</v>
+        <v>1.495588621985405</v>
       </c>
       <c r="C24">
-        <v>0.1782300394815906</v>
+        <v>0.1933279276936162</v>
       </c>
       <c r="D24">
-        <v>0.07631683536595801</v>
+        <v>0.08303790194636207</v>
       </c>
       <c r="E24">
-        <v>0.0620210830561696</v>
+        <v>0.05625426293193136</v>
       </c>
       <c r="F24">
-        <v>1.177774185085582</v>
+        <v>1.004487056704491</v>
       </c>
       <c r="G24">
-        <v>1.096684338775134</v>
+        <v>0.9118338416809024</v>
       </c>
       <c r="H24">
-        <v>0.003492769507840499</v>
+        <v>0.002725368271734196</v>
       </c>
       <c r="I24">
-        <v>0.005388269440176785</v>
+        <v>0.004274106803629607</v>
       </c>
       <c r="J24">
-        <v>0.7182144860462927</v>
+        <v>0.6202555145365807</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.264227623347864</v>
       </c>
       <c r="M24">
-        <v>1.434115354256221</v>
+        <v>0.2490962513520643</v>
       </c>
       <c r="N24">
-        <v>0.2059586573943477</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3421873390032175</v>
+        <v>1.400964611683889</v>
       </c>
       <c r="P24">
-        <v>1.234551026680279</v>
+        <v>0.2237704920109991</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3227151968177324</v>
+      </c>
+      <c r="R24">
+        <v>1.084670591389067</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.375959809559617</v>
+        <v>1.2378148127695</v>
       </c>
       <c r="C25">
-        <v>0.155530124963235</v>
+        <v>0.1631824953600471</v>
       </c>
       <c r="D25">
-        <v>0.07028476751702684</v>
+        <v>0.0741270252508599</v>
       </c>
       <c r="E25">
-        <v>0.05436699564413949</v>
+        <v>0.05000668969260325</v>
       </c>
       <c r="F25">
-        <v>1.057431666067131</v>
+        <v>0.9160212270383852</v>
       </c>
       <c r="G25">
-        <v>0.9914341280004919</v>
+        <v>0.8317434086045239</v>
       </c>
       <c r="H25">
-        <v>0.007014663081274297</v>
+        <v>0.005547019596088942</v>
       </c>
       <c r="I25">
-        <v>0.00965284012504064</v>
+        <v>0.007339203003465578</v>
       </c>
       <c r="J25">
-        <v>0.6765314537468754</v>
+        <v>0.6013768205197607</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2660360061710385</v>
       </c>
       <c r="M25">
-        <v>1.17339581314647</v>
+        <v>0.2250674287899628</v>
       </c>
       <c r="N25">
-        <v>0.17185779450989</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2826996588324988</v>
+        <v>1.151049677592596</v>
       </c>
       <c r="P25">
-        <v>1.278226082806732</v>
+        <v>0.1875511353707537</v>
       </c>
       <c r="Q25">
+        <v>0.2676984506063249</v>
+      </c>
+      <c r="R25">
+        <v>1.141630373988036</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
